--- a/data/trans_bre/P21D_3_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P21D_3_R-Provincia-trans_bre.xlsx
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.510989252930557</v>
+        <v>1.515981315044787</v>
       </c>
       <c r="D9" s="6" t="inlineStr"/>
     </row>
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.974818510074631</v>
+        <v>1.953398895364316</v>
       </c>
       <c r="D12" s="6" t="inlineStr"/>
     </row>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>-0.5885797257897868</v>
+        <v>-0.5885797257897867</v>
       </c>
       <c r="D19" s="6" t="n">
         <v>-1</v>
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-2.967889163620679</v>
+        <v>-2.908012381012461</v>
       </c>
       <c r="D20" s="6" t="inlineStr"/>
     </row>
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.007867122215045</v>
+        <v>1.134832599099641</v>
       </c>
       <c r="D24" s="6" t="inlineStr"/>
     </row>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.09503711883541709</v>
+        <v>-0.06210066066017585</v>
       </c>
       <c r="D29" s="6" t="inlineStr"/>
     </row>
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.2429530848994778</v>
+        <v>0.2448709738531873</v>
       </c>
       <c r="D30" s="6" t="inlineStr"/>
     </row>
